--- a/notebooks/simulation/sim_results/summary_norm_dist_000_train.xlsx
+++ b/notebooks/simulation/sim_results/summary_norm_dist_000_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,67 +565,67 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.4877632536997231</v>
+        <v>0.9755265073994462</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4210521045020766</v>
+        <v>0.7894726959413937</v>
       </c>
       <c r="F2" t="n">
-        <v>0.467167566947228</v>
+        <v>0.934335133894456</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4062673068315389</v>
+        <v>0.8125346136630779</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3901058001423228</v>
+        <v>0.7802116002846456</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3946925995407486</v>
+        <v>0.7893851990814973</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4049089276461466</v>
+        <v>0.8098178552922931</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4457453519635438</v>
+        <v>0.881585251661231</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4980241561631453</v>
+        <v>0.9960483123262905</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4086918864971009</v>
+        <v>0.6453029786796329</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3955604765784015</v>
+        <v>0.791120953156803</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4759961893410618</v>
+        <v>0.9475850065585952</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4539395967911493</v>
+        <v>0.9071149855068927</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4665898900952722</v>
+        <v>0.9331797801905444</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4687316096199582</v>
+        <v>0.781219349366597</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4827441877525447</v>
+        <v>0.9118501324214733</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4668181349324407</v>
+        <v>0.9336362698648814</v>
       </c>
       <c r="U2" t="n">
-        <v>0.4035878182703669</v>
+        <v>0.8071756365407339</v>
       </c>
       <c r="V2" t="n">
-        <v>0.465401574827535</v>
+        <v>0.9308031496550701</v>
       </c>
       <c r="W2" t="n">
-        <v>0.4614095028881125</v>
+        <v>0.9057297649285171</v>
       </c>
       <c r="X2" t="n">
-        <v>0.4303187513185623</v>
+        <v>0.8606375026371246</v>
       </c>
     </row>
     <row r="3">
@@ -643,67 +643,67 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.3699627612506038</v>
+        <v>0.7399255225012077</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3467088087335194</v>
+        <v>0.650079016375349</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4479918369940978</v>
+        <v>0.8959836739881956</v>
       </c>
       <c r="G3" t="n">
-        <v>0.208293069134098</v>
+        <v>0.4165861382681959</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4472161661124589</v>
+        <v>0.8944323322249178</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="J3" t="n">
-        <v>0.267312513068421</v>
+        <v>0.5346250261368419</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4565449549071895</v>
+        <v>0.902944466371997</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4490471064378272</v>
+        <v>0.8980942128756545</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1902614158244005</v>
+        <v>0.3004127618280008</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3747321772935397</v>
+        <v>0.7494643545870795</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4237232629074688</v>
+        <v>0.8435231622694981</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4196198462488146</v>
+        <v>0.8385332617800386</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4101712936206355</v>
+        <v>0.820342587241271</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2346888036012814</v>
+        <v>0.3911480060021357</v>
       </c>
       <c r="S3" t="n">
-        <v>0.485272621158288</v>
+        <v>0.9166260621878772</v>
       </c>
       <c r="T3" t="n">
-        <v>0.4563016346380706</v>
+        <v>0.9126032692761412</v>
       </c>
       <c r="U3" t="n">
-        <v>0.3408450665374025</v>
+        <v>0.681690133074805</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4634407426400971</v>
+        <v>0.9268814852801942</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3867982122582563</v>
+        <v>0.7592705648032437</v>
       </c>
       <c r="X3" t="n">
-        <v>0.4143936835428306</v>
+        <v>0.8287873670856611</v>
       </c>
     </row>
     <row r="4">
@@ -721,67 +721,67 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.4165184598912336</v>
+        <v>0.8330369197824673</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3206557893867624</v>
+        <v>0.6012296051001795</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3438978964218789</v>
+        <v>0.6877957928437578</v>
       </c>
       <c r="G4" t="n">
-        <v>0.463689509505106</v>
+        <v>0.927379019010212</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4471326572140965</v>
+        <v>0.8942653144281929</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4210522199394975</v>
+        <v>0.842104439878995</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4029361406056577</v>
+        <v>0.8058722812113154</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4414499752750696</v>
+        <v>0.8730899510995821</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4934877965161777</v>
+        <v>0.9869755930323554</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2046945941132937</v>
+        <v>0.3232019907052007</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3703040062843798</v>
+        <v>0.7406080125687596</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4605531400184318</v>
+        <v>0.916841899110767</v>
       </c>
       <c r="P4" t="n">
-        <v>0.4314082164666595</v>
+        <v>0.862090156474621</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4664609845650996</v>
+        <v>0.9329219691301992</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4521429775819236</v>
+        <v>0.753571629303206</v>
       </c>
       <c r="S4" t="n">
-        <v>0.491814848555276</v>
+        <v>0.9289836028266324</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2769177035472237</v>
+        <v>0.5538354070944473</v>
       </c>
       <c r="U4" t="n">
-        <v>0.4464312781731953</v>
+        <v>0.8928625563463907</v>
       </c>
       <c r="V4" t="n">
-        <v>0.4646405369387009</v>
+        <v>0.9292810738774018</v>
       </c>
       <c r="W4" t="n">
-        <v>0.4208526758328469</v>
+        <v>0.8261182155237364</v>
       </c>
       <c r="X4" t="n">
-        <v>0.4276626383997254</v>
+        <v>0.8553252767994508</v>
       </c>
     </row>
     <row r="5">
@@ -790,76 +790,76 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>flowbot</t>
+          <t>hisditonly</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>sgp</t>
+          <t>raw</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.4946730448731491</v>
+        <v>0.8300200297589607</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4248697931613917</v>
+        <v>0.6193737702786831</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4571472501030881</v>
+        <v>0.551958888325472</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4028685055376608</v>
+        <v>0.1147762086215552</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4736923284487907</v>
+        <v>0.8370080968595582</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3947368421052632</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4017105263335227</v>
+        <v>0.8053916207744045</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4522588884750275</v>
+        <v>0.8590856058479215</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4992867554584179</v>
+        <v>0.8860313827645816</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3981122679490092</v>
+        <v>0.4528544604989494</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4487213198474522</v>
+        <v>0.8245538882612222</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4750179199038187</v>
+        <v>0.9282721941529722</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4763732347416938</v>
+        <v>0.8358425952703649</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.4713221878672105</v>
+        <v>0.9030978363569152</v>
       </c>
       <c r="R5" t="n">
-        <v>0.467807078430824</v>
+        <v>0.5880341337078518</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4731704442371371</v>
+        <v>0.7450095353668735</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2758218272845427</v>
+        <v>0.9487154578808976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.4383613934314914</v>
+        <v>0.8178332978335928</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4685617854418969</v>
+        <v>0.8214321533627195</v>
       </c>
       <c r="W5" t="n">
-        <v>0.4021598384371941</v>
+        <v>0.4926699956846632</v>
       </c>
       <c r="X5" t="n">
-        <v>0.4686500779609047</v>
+        <v>0.740524492408409</v>
       </c>
     </row>
     <row r="6">
@@ -868,7 +868,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dit</t>
+          <t>flowbot</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -877,67 +877,67 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.4725446373543054</v>
+        <v>0.9893460897462982</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3433404429281034</v>
+        <v>0.7966308621776094</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4320910373593266</v>
+        <v>0.9142945002061762</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1883967990474261</v>
+        <v>0.8057370110753217</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4654127137781943</v>
+        <v>0.9473846568975813</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4641555185553506</v>
+        <v>0.8034210526670454</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4481273503699855</v>
+        <v>0.8944675794283877</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4370418628319954</v>
+        <v>0.9985735109168359</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4093734957737973</v>
+        <v>0.628598317814225</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4389584143981517</v>
+        <v>0.8974426396949045</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4726136210766974</v>
+        <v>0.9456375257344539</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4565503090201782</v>
+        <v>0.9519444943407248</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4526647176728346</v>
+        <v>0.9426443757344209</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4608656202268797</v>
+        <v>0.7796784640513733</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4848370205095726</v>
+        <v>0.8937663946701478</v>
       </c>
       <c r="T6" t="n">
-        <v>0.469246650352431</v>
+        <v>0.5516436545690855</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3676935136030445</v>
+        <v>0.8767227868629828</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4633278803867184</v>
+        <v>0.9371235708837938</v>
       </c>
       <c r="W6" t="n">
-        <v>0.3629706448985109</v>
+        <v>0.789424868043381</v>
       </c>
       <c r="X6" t="n">
-        <v>0.4370318842851856</v>
+        <v>0.9373001559218095</v>
       </c>
     </row>
     <row r="7">
@@ -946,7 +946,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pndit</t>
+          <t>dit</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -955,67 +955,67 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.4901243363561105</v>
+        <v>0.9450892747086108</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4395877864093663</v>
+        <v>0.6437633304901939</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4559814248087202</v>
+        <v>0.8641820747186533</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4671580337237072</v>
+        <v>0.3767935980948522</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4596644624408656</v>
+        <v>0.9308254275563886</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4698526086670088</v>
+        <v>0.9283110371107012</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4448912277080774</v>
+        <v>0.8862963151761937</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4671130114424638</v>
+        <v>0.8740837256639908</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3658158249757766</v>
+        <v>0.6463792038533641</v>
       </c>
       <c r="N7" t="n">
-        <v>0.400145727549892</v>
+        <v>0.8779168287963034</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4721830771963358</v>
+        <v>0.9408511901063883</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4577584962578594</v>
+        <v>0.9123320148265177</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.4694000961101177</v>
+        <v>0.9053294353456692</v>
       </c>
       <c r="R7" t="n">
-        <v>0.5708186414196965</v>
+        <v>0.7681093670447995</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4888508810775722</v>
+        <v>0.9158032609625261</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2928965232068601</v>
+        <v>0.938493300704862</v>
       </c>
       <c r="U7" t="n">
-        <v>0.4599783505814038</v>
+        <v>0.7353870272060891</v>
       </c>
       <c r="V7" t="n">
-        <v>0.464836004743014</v>
+        <v>0.9266557607734368</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3646602839104867</v>
+        <v>0.7124979325785584</v>
       </c>
       <c r="X7" t="n">
-        <v>0.466674090070773</v>
+        <v>0.8740637685703713</v>
       </c>
     </row>
     <row r="8">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>hisdit</t>
+          <t>pndit</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1033,67 +1033,67 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.464508020925728</v>
+        <v>0.9802486727122209</v>
       </c>
       <c r="E8" t="n">
-        <v>0.470437511485077</v>
+        <v>0.8242270995175618</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4625843873165662</v>
+        <v>0.9119628496174405</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4060731168300633</v>
+        <v>0.9343160674474144</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4710644437792105</v>
+        <v>0.9193289248817312</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4683840765173771</v>
+        <v>0.9397052173340176</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4738260290612443</v>
+        <v>0.8798959836893087</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4950619369339699</v>
+        <v>0.9342260228849276</v>
       </c>
       <c r="M8" t="n">
-        <v>0.399618936112826</v>
+        <v>0.5776039341722788</v>
       </c>
       <c r="N8" t="n">
-        <v>0.457786520946482</v>
+        <v>0.8002914550997841</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4785723374805054</v>
+        <v>0.939994088863076</v>
       </c>
       <c r="P8" t="n">
-        <v>0.4745182060276359</v>
+        <v>0.9147463553166314</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4669072843388613</v>
+        <v>0.9388001922202354</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4248700795304748</v>
+        <v>0.9513644023661608</v>
       </c>
       <c r="S8" t="n">
-        <v>0.436809849300313</v>
+        <v>0.9233849975909697</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4629389251010832</v>
+        <v>0.5857930464137202</v>
       </c>
       <c r="U8" t="n">
-        <v>0.4402139553381451</v>
+        <v>0.9199567011628076</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4665882594417508</v>
+        <v>0.929672009486028</v>
       </c>
       <c r="W8" t="n">
-        <v>0.4427955930886784</v>
+        <v>0.7158146313798441</v>
       </c>
       <c r="X8" t="n">
-        <v>0.4644154973268689</v>
+        <v>0.933348180141546</v>
       </c>
     </row>
     <row r="9">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pnhisdit</t>
+          <t>hisdit</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1111,137 +1111,293 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9579930539614461</v>
+        <v>0.929016041851456</v>
       </c>
       <c r="E9" t="n">
-        <v>0.892410435240603</v>
+        <v>0.8820703340345193</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9213521997613516</v>
+        <v>0.9251687746331324</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8689239907972637</v>
+        <v>0.8121462336601266</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9318467997718142</v>
+        <v>0.9421288875584211</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9320842751628723</v>
+        <v>0.9367681530347541</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9210833818545767</v>
+        <v>0.9371225908100164</v>
       </c>
       <c r="L9" t="n">
-        <v>0.992536511396794</v>
+        <v>0.9901238738679399</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8314189863151199</v>
+        <v>0.6309772675465674</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9214668652669258</v>
+        <v>0.915573041892964</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9525679943997136</v>
+        <v>0.9527134496139692</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9517279328437546</v>
+        <v>0.9482375598565721</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9380015588604732</v>
+        <v>0.9338145686777226</v>
       </c>
       <c r="R9" t="n">
-        <v>0.8916111462706906</v>
+        <v>0.7081167992174581</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9236027382874787</v>
+        <v>0.8250852709005912</v>
       </c>
       <c r="T9" t="n">
-        <v>0.9336544510639118</v>
+        <v>0.9258778502021664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.9091553827433941</v>
+        <v>0.8804279106762901</v>
       </c>
       <c r="V9" t="n">
-        <v>0.93329232289713</v>
+        <v>0.9331765188835016</v>
       </c>
       <c r="W9" t="n">
-        <v>0.8691613318905348</v>
+        <v>0.8691913493962947</v>
       </c>
       <c r="X9" t="n">
-        <v>0.9337152202606819</v>
+        <v>0.9288309946537378</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>pnhisdit</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>sgp</t>
+        </is>
+      </c>
       <c r="D10" t="n">
+        <v>0.9869700660714361</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7911992320416115</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.917535624889571</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9257017479344009</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9215647119852072</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.9274003972909906</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.8845756533023688</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.994949148925648</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.6817895529509904</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.9273606886408876</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.9436024651632386</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.9536160702537589</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.942188549043224</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.7779017779003596</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.9194976791979796</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.941431051925657</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.9378828548104982</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.9334081269107584</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.8369401539443845</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.938599445867626</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>hisditonly</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sgp</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9070990206492752</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7074507117110422</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.8834328832312981</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.1172589228022622</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9290425428288088</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9102833447546136</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9031071339054562</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.9419485740396532</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.619020991173625</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.8595622980831905</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.9489195120308755</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.9149784715701569</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.9007035115008699</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.719856285171747</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.9253519530500142</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.5977186122970675</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.9432799508008872</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.8935923577883212</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.5477229188435465</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.7211607363465341</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>12</v>
+      </c>
+      <c r="E12" t="n">
         <v>24</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>34</v>
+      </c>
+      <c r="I12" t="n">
+        <v>19</v>
+      </c>
+      <c r="J12" t="n">
+        <v>7</v>
+      </c>
+      <c r="K12" t="n">
         <v>45</v>
       </c>
-      <c r="F10" t="n">
-        <v>8</v>
-      </c>
-      <c r="G10" t="n">
-        <v>16</v>
-      </c>
-      <c r="H10" t="n">
-        <v>68</v>
-      </c>
-      <c r="I10" t="n">
-        <v>38</v>
-      </c>
-      <c r="J10" t="n">
-        <v>14</v>
-      </c>
-      <c r="K10" t="n">
-        <v>89</v>
-      </c>
-      <c r="L10" t="n">
-        <v>36</v>
-      </c>
-      <c r="M10" t="n">
-        <v>30</v>
-      </c>
-      <c r="N10" t="n">
-        <v>96</v>
-      </c>
-      <c r="O10" t="n">
-        <v>215</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1187</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>50</v>
-      </c>
-      <c r="R10" t="n">
-        <v>10</v>
-      </c>
-      <c r="S10" t="n">
-        <v>17</v>
-      </c>
-      <c r="T10" t="n">
-        <v>4</v>
-      </c>
-      <c r="U10" t="n">
-        <v>22</v>
-      </c>
-      <c r="V10" t="n">
-        <v>56</v>
-      </c>
-      <c r="W10" t="n">
-        <v>53</v>
-      </c>
-      <c r="X10" t="n">
-        <v>26</v>
+      <c r="L12" t="n">
+        <v>18</v>
+      </c>
+      <c r="M12" t="n">
+        <v>19</v>
+      </c>
+      <c r="N12" t="n">
+        <v>48</v>
+      </c>
+      <c r="O12" t="n">
+        <v>108</v>
+      </c>
+      <c r="P12" t="n">
+        <v>594</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>25</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6</v>
+      </c>
+      <c r="S12" t="n">
+        <v>9</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2</v>
+      </c>
+      <c r="U12" t="n">
+        <v>11</v>
+      </c>
+      <c r="V12" t="n">
+        <v>28</v>
+      </c>
+      <c r="W12" t="n">
+        <v>27</v>
+      </c>
+      <c r="X12" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/simulation/sim_results/summary_norm_dist_000_train.xlsx
+++ b/notebooks/simulation/sim_results/summary_norm_dist_000_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,7 +583,7 @@
         <v>0.7893851990814973</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8098178552922931</v>
+        <v>0.7085906233807565</v>
       </c>
       <c r="K2" t="n">
         <v>0.881585251661231</v>
@@ -661,7 +661,7 @@
         <v>0.8421052631578947</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5346250261368419</v>
+        <v>0.4677968978697367</v>
       </c>
       <c r="K3" t="n">
         <v>0.902944466371997</v>
@@ -739,7 +739,7 @@
         <v>0.842104439878995</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8058722812113154</v>
+        <v>0.7051382460599009</v>
       </c>
       <c r="K4" t="n">
         <v>0.8730899510995821</v>
@@ -817,7 +817,7 @@
         <v>0.8421052631578947</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8053916207744045</v>
+        <v>0.704717668177604</v>
       </c>
       <c r="K5" t="n">
         <v>0.8590856058479215</v>
@@ -895,7 +895,7 @@
         <v>0.8947398622865115</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4606463412390533</v>
+        <v>0.4030655485841717</v>
       </c>
       <c r="K6" t="n">
         <v>0.9344935436104784</v>
@@ -946,76 +946,76 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>flowbot</t>
+          <t>flowbotallopen</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>sgp</t>
+          <t>raw</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9893460897462982</v>
+        <v>0.948538262732972</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7966308621776094</v>
+        <v>0.6223971407125836</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9142945002061762</v>
+        <v>0.9254448754527442</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8057370110753217</v>
+        <v>0.8088579963453143</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9473846568975813</v>
+        <v>0.6804168897452224</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8034210526670454</v>
+        <v>0.6972547324053925</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8944675794283877</v>
+        <v>0.9076312714440001</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9985735109168359</v>
+        <v>0.9486437650566606</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5971684019235137</v>
+        <v>0.3532572414139013</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8974426396949045</v>
+        <v>0.6581733928919579</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9456375257344539</v>
+        <v>0.906232977907536</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9519444943407248</v>
+        <v>0.8480228278833117</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9426443757344209</v>
+        <v>0.7538673932535995</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7796784640513733</v>
+        <v>0.7690144207688484</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8937663946701478</v>
+        <v>0.8831562813944962</v>
       </c>
       <c r="T7" t="n">
-        <v>0.5516436545690855</v>
+        <v>0.4631756227202795</v>
       </c>
       <c r="U7" t="n">
-        <v>0.8767227868629828</v>
+        <v>0.8501333784956305</v>
       </c>
       <c r="V7" t="n">
-        <v>0.9371235708837938</v>
+        <v>0.9327039958460812</v>
       </c>
       <c r="W7" t="n">
-        <v>0.789424868043381</v>
+        <v>0.7961772042071189</v>
       </c>
       <c r="X7" t="n">
-        <v>0.9373001559218095</v>
+        <v>0.8170434836031941</v>
       </c>
     </row>
     <row r="8">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>dit</t>
+          <t>flowbot</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1033,67 +1033,67 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.9450892747086108</v>
+        <v>0.9893460897462982</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6437633304901939</v>
+        <v>0.7966308621776094</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8641820747186533</v>
+        <v>0.9142945002061762</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3767935980948522</v>
+        <v>0.8057370110753217</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9308254275563886</v>
+        <v>0.9473846568975813</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9283110371107012</v>
+        <v>0.7029934210836648</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8862963151761937</v>
+        <v>0.8944675794283877</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8740837256639908</v>
+        <v>0.9985735109168359</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6140602436606959</v>
+        <v>0.5971684019235137</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8779168287963034</v>
+        <v>0.8974426396949045</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9408511901063883</v>
+        <v>0.9456375257344539</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9123320148265177</v>
+        <v>0.9519444943407248</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9053294353456692</v>
+        <v>0.9426443757344209</v>
       </c>
       <c r="R8" t="n">
-        <v>0.7681093670447995</v>
+        <v>0.7796784640513733</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9158032609625261</v>
+        <v>0.8937663946701478</v>
       </c>
       <c r="T8" t="n">
-        <v>0.938493300704862</v>
+        <v>0.5516436545690855</v>
       </c>
       <c r="U8" t="n">
-        <v>0.7353870272060891</v>
+        <v>0.8767227868629828</v>
       </c>
       <c r="V8" t="n">
-        <v>0.9266557607734368</v>
+        <v>0.9371235708837938</v>
       </c>
       <c r="W8" t="n">
-        <v>0.7124979325785584</v>
+        <v>0.789424868043381</v>
       </c>
       <c r="X8" t="n">
-        <v>0.8740637685703713</v>
+        <v>0.9373001559218095</v>
       </c>
     </row>
     <row r="9">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pndit</t>
+          <t>dit</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1111,67 +1111,67 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9802486727122209</v>
+        <v>0.9450892747086108</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8242270995175618</v>
+        <v>0.6437633304901939</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9119628496174405</v>
+        <v>0.8641820747186533</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9343160674474144</v>
+        <v>0.3767935980948522</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9193289248817312</v>
+        <v>0.9308254275563886</v>
       </c>
       <c r="I9" t="n">
         <v>0.9473684210526315</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9397052173340176</v>
+        <v>0.8122721574718635</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8798959836893087</v>
+        <v>0.8862963151761937</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9342260228849276</v>
+        <v>0.8740837256639908</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5487237374636649</v>
+        <v>0.6140602436606959</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8002914550997841</v>
+        <v>0.8779168287963034</v>
       </c>
       <c r="O9" t="n">
-        <v>0.939994088863076</v>
+        <v>0.9408511901063883</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9147463553166314</v>
+        <v>0.9123320148265177</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9388001922202354</v>
+        <v>0.9053294353456692</v>
       </c>
       <c r="R9" t="n">
-        <v>0.9513644023661608</v>
+        <v>0.7681093670447995</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9233849975909697</v>
+        <v>0.9158032609625261</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5857930464137202</v>
+        <v>0.938493300704862</v>
       </c>
       <c r="U9" t="n">
-        <v>0.9199567011628076</v>
+        <v>0.7353870272060891</v>
       </c>
       <c r="V9" t="n">
-        <v>0.929672009486028</v>
+        <v>0.9266557607734368</v>
       </c>
       <c r="W9" t="n">
-        <v>0.7158146313798441</v>
+        <v>0.7124979325785584</v>
       </c>
       <c r="X9" t="n">
-        <v>0.933348180141546</v>
+        <v>0.8740637685703713</v>
       </c>
     </row>
     <row r="10">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>hisdit</t>
+          <t>pndit</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1189,67 +1189,67 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.929016041851456</v>
+        <v>0.9802486727122209</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8820703340345193</v>
+        <v>0.8242270995175618</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9251687746331324</v>
+        <v>0.9119628496174405</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8121462336601266</v>
+        <v>0.9343160674474144</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9421288875584211</v>
+        <v>0.9193289248817312</v>
       </c>
       <c r="I10" t="n">
         <v>0.9473684210526315</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9367681530347541</v>
+        <v>0.8222420651672654</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9371225908100164</v>
+        <v>0.8798959836893087</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9901238738679399</v>
+        <v>0.9342260228849276</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5994284041692389</v>
+        <v>0.5487237374636649</v>
       </c>
       <c r="N10" t="n">
-        <v>0.915573041892964</v>
+        <v>0.8002914550997841</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9527134496139692</v>
+        <v>0.939994088863076</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9482375598565721</v>
+        <v>0.9147463553166314</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.9338145686777226</v>
+        <v>0.9388001922202354</v>
       </c>
       <c r="R10" t="n">
-        <v>0.7081167992174581</v>
+        <v>0.9513644023661608</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8250852709005912</v>
+        <v>0.9233849975909697</v>
       </c>
       <c r="T10" t="n">
-        <v>0.9258778502021664</v>
+        <v>0.5857930464137202</v>
       </c>
       <c r="U10" t="n">
-        <v>0.8804279106762901</v>
+        <v>0.9199567011628076</v>
       </c>
       <c r="V10" t="n">
-        <v>0.9331765188835016</v>
+        <v>0.929672009486028</v>
       </c>
       <c r="W10" t="n">
-        <v>0.8691913493962947</v>
+        <v>0.7158146313798441</v>
       </c>
       <c r="X10" t="n">
-        <v>0.9288309946537378</v>
+        <v>0.933348180141546</v>
       </c>
     </row>
     <row r="11">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pnhisdit</t>
+          <t>hisdit</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1267,67 +1267,67 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9869700660714361</v>
+        <v>0.929016041851456</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7911992320416115</v>
+        <v>0.8820703340345193</v>
       </c>
       <c r="F11" t="n">
-        <v>0.917535624889571</v>
+        <v>0.9251687746331324</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9257017479344009</v>
+        <v>0.8121462336601266</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9215647119852072</v>
+        <v>0.9421288875584211</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9274003972909906</v>
+        <v>0.8196721339054098</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8845756533023688</v>
+        <v>0.9371225908100164</v>
       </c>
       <c r="L11" t="n">
-        <v>0.994949148925648</v>
+        <v>0.9901238738679399</v>
       </c>
       <c r="M11" t="n">
-        <v>0.647700075303441</v>
+        <v>0.5994284041692389</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9273606886408876</v>
+        <v>0.915573041892964</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9436024651632386</v>
+        <v>0.9527134496139692</v>
       </c>
       <c r="P11" t="n">
-        <v>0.9536160702537589</v>
+        <v>0.9482375598565721</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.942188549043224</v>
+        <v>0.9338145686777226</v>
       </c>
       <c r="R11" t="n">
-        <v>0.7779017779003596</v>
+        <v>0.7081167992174581</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9194976791979796</v>
+        <v>0.8250852709005912</v>
       </c>
       <c r="T11" t="n">
-        <v>0.941431051925657</v>
+        <v>0.9258778502021664</v>
       </c>
       <c r="U11" t="n">
-        <v>0.9378828548104982</v>
+        <v>0.8804279106762901</v>
       </c>
       <c r="V11" t="n">
-        <v>0.9334081269107584</v>
+        <v>0.9331765188835016</v>
       </c>
       <c r="W11" t="n">
-        <v>0.8369401539443845</v>
+        <v>0.8691913493962947</v>
       </c>
       <c r="X11" t="n">
-        <v>0.938599445867626</v>
+        <v>0.9288309946537378</v>
       </c>
     </row>
     <row r="12">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>hisditonly</t>
+          <t>pnhisdit</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1345,67 +1345,67 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9070990206492752</v>
+        <v>0.9869700660714361</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7074507117110422</v>
+        <v>0.7911992320416115</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8834328832312981</v>
+        <v>0.917535624889571</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1172589228022622</v>
+        <v>0.9257017479344009</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9290425428288088</v>
+        <v>0.9215647119852072</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9102833447546136</v>
+        <v>0.8114753476296167</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9031071339054562</v>
+        <v>0.8845756533023688</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9419485740396532</v>
+        <v>0.994949148925648</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5880699416149437</v>
+        <v>0.647700075303441</v>
       </c>
       <c r="N12" t="n">
-        <v>0.8595622980831905</v>
+        <v>0.9273606886408876</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9489195120308755</v>
+        <v>0.9436024651632386</v>
       </c>
       <c r="P12" t="n">
-        <v>0.9149784715701569</v>
+        <v>0.9536160702537589</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.9007035115008699</v>
+        <v>0.942188549043224</v>
       </c>
       <c r="R12" t="n">
-        <v>0.719856285171747</v>
+        <v>0.7779017779003596</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9253519530500142</v>
+        <v>0.9194976791979796</v>
       </c>
       <c r="T12" t="n">
-        <v>0.5977186122970675</v>
+        <v>0.941431051925657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.9432799508008872</v>
+        <v>0.9378828548104982</v>
       </c>
       <c r="V12" t="n">
-        <v>0.8935923577883212</v>
+        <v>0.9334081269107584</v>
       </c>
       <c r="W12" t="n">
-        <v>0.5477229188435465</v>
+        <v>0.8369401539443845</v>
       </c>
       <c r="X12" t="n">
-        <v>0.7211607363465341</v>
+        <v>0.938599445867626</v>
       </c>
     </row>
     <row r="13">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>hisonly</t>
+          <t>hisditonly</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1423,67 +1423,67 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.9892311082994611</v>
+        <v>0.9070990206492752</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7265015815486979</v>
+        <v>0.7074507117110422</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9001464105467172</v>
+        <v>0.8834328832312981</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2500677150062614</v>
+        <v>0.1172589228022622</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8514282923818554</v>
+        <v>0.9290425428288088</v>
       </c>
       <c r="I13" t="n">
-        <v>0.94712971281851</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6755128427120359</v>
+        <v>0.7964979266602868</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8874213071024971</v>
+        <v>0.9031071339054562</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9069669740739231</v>
+        <v>0.9419485740396532</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5857027549625548</v>
+        <v>0.5880699416149437</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7848651984713045</v>
+        <v>0.8595622980831905</v>
       </c>
       <c r="O13" t="n">
-        <v>0.9527038979608724</v>
+        <v>0.9489195120308755</v>
       </c>
       <c r="P13" t="n">
-        <v>0.8889164980662498</v>
+        <v>0.9149784715701569</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.9035332191864646</v>
+        <v>0.9007035115008699</v>
       </c>
       <c r="R13" t="n">
-        <v>0.7873550364940067</v>
+        <v>0.719856285171747</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9234201457275274</v>
+        <v>0.9253519530500142</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9134210615860932</v>
+        <v>0.5977186122970675</v>
       </c>
       <c r="U13" t="n">
-        <v>0.8524532981284009</v>
+        <v>0.9432799508008872</v>
       </c>
       <c r="V13" t="n">
-        <v>0.9288690941221552</v>
+        <v>0.8935923577883212</v>
       </c>
       <c r="W13" t="n">
-        <v>0.6360243740482869</v>
+        <v>0.5477229188435465</v>
       </c>
       <c r="X13" t="n">
-        <v>0.8134839584658901</v>
+        <v>0.7211607363465341</v>
       </c>
     </row>
     <row r="14">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>hispndit01only1</t>
+          <t>hisonly</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1501,67 +1501,67 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.9878653383314688</v>
+        <v>0.9892311082994611</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6460899761188831</v>
+        <v>0.7265015815486979</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9201311761337329</v>
+        <v>0.9001464105467172</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9263019221273836</v>
+        <v>0.2500677150062614</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9540318869663328</v>
+        <v>0.8514282923818554</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0.94712971281851</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9361596797551496</v>
+        <v>0.5910737373730315</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8949562327569295</v>
+        <v>0.8874213071024971</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9042680202108593</v>
+        <v>0.9069669740739231</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7335215243090599</v>
+        <v>0.5857027549625548</v>
       </c>
       <c r="N14" t="n">
-        <v>0.8214569495575059</v>
+        <v>0.7848651984713045</v>
       </c>
       <c r="O14" t="n">
-        <v>0.899970211940771</v>
+        <v>0.9527038979608724</v>
       </c>
       <c r="P14" t="n">
-        <v>0.8828500211243107</v>
+        <v>0.8889164980662498</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.8539519793349817</v>
+        <v>0.9035332191864646</v>
       </c>
       <c r="R14" t="n">
-        <v>0.864412707194352</v>
+        <v>0.7873550364940067</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9192080281554813</v>
+        <v>0.9234201457275274</v>
       </c>
       <c r="T14" t="n">
-        <v>0.9226365679902496</v>
+        <v>0.9134210615860932</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4143069340002693</v>
+        <v>0.8524532981284009</v>
       </c>
       <c r="V14" t="n">
-        <v>0.9285498840399724</v>
+        <v>0.9288690941221552</v>
       </c>
       <c r="W14" t="n">
-        <v>0.7446793888751467</v>
+        <v>0.6360243740482869</v>
       </c>
       <c r="X14" t="n">
-        <v>0.7598165334565071</v>
+        <v>0.8134839584658901</v>
       </c>
     </row>
     <row r="15">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>hispndit01only2</t>
+          <t>pndit&amp;pn++</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1579,136 +1579,604 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.9910283449676752</v>
+        <v>0.9773130975065948</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7086545720587406</v>
+        <v>0.7528956694095066</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9246566752734546</v>
+        <v>0.9258421530667712</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8234914363026068</v>
+        <v>0.92170200000349</v>
       </c>
       <c r="H15" t="n">
-        <v>0.916248484018174</v>
+        <v>0.92186892832602</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8126152036917259</v>
+        <v>0.829783725197764</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9043269606345864</v>
+        <v>0.9058486885239555</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9624064473798488</v>
+        <v>0.9955159283437491</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7463416739882336</v>
+        <v>0.6397625249272797</v>
       </c>
       <c r="N15" t="n">
-        <v>0.8930338359842863</v>
+        <v>0.8846605399844015</v>
       </c>
       <c r="O15" t="n">
-        <v>0.9596023198029884</v>
+        <v>0.9706497002245392</v>
       </c>
       <c r="P15" t="n">
-        <v>0.946738613319514</v>
+        <v>0.9472834743821181</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.9413837204610632</v>
+        <v>0.9031723426294778</v>
       </c>
       <c r="R15" t="n">
-        <v>0.7629902785735433</v>
+        <v>0.7937987836680965</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9148147106416695</v>
+        <v>0.922234637594284</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9301015853308724</v>
+        <v>0.913993119411016</v>
       </c>
       <c r="U15" t="n">
-        <v>0.830634766194925</v>
+        <v>0.9430281560854588</v>
       </c>
       <c r="V15" t="n">
-        <v>0.9331147706124704</v>
+        <v>0.8942452556053794</v>
       </c>
       <c r="W15" t="n">
-        <v>0.738671899288364</v>
+        <v>0.8495693475358435</v>
       </c>
       <c r="X15" t="n">
-        <v>0.879812347138955</v>
+        <v>0.9304636975934988</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>dit&amp;pn++</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>sgp</t>
+        </is>
+      </c>
       <c r="D16" t="n">
+        <v>0.9944278296829688</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7403901171092672</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.916089022144227</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9284983542082668</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9464236495599851</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.9316828570848924</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.9180867603950608</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.9359302440892896</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.6915007013229748</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.8933837557113536</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.9585152390431042</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.9431361147990045</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.9417561910703895</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.7853329866300197</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.921132593485951</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.9174184411299932</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.8676683229704999</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.9259292994192437</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.7958002360068996</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.9363707224439508</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>largedit&amp;pn++</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>sgp</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9909721426668593</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6676048308671808</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9215662767777212</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.8065257041077918</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9430965506912997</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.8102987384501114</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.9173978113846388</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.8800359571802895</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.3724175887898896</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.8857517526351822</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.8996698644380141</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.9033325462303411</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.8310414859201767</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.7651408721493403</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.9245994170816909</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.4748449140901792</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.8575304864817063</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.9275039091859796</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.8236404180322853</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.8641603328111649</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>flowbotallopen</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>sgp</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9845743834266014</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8381620374537034</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9191358191597572</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.7987679389688422</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.8751652273405337</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.8187486462754274</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.9203244143282237</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.9584396210808852</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.725888769067504</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.7618668488956342</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.963766346297416</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.9249850184261792</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.9425271730076055</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.6226181420683127</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.7778620713821121</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.4704973780538956</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.8791094786178569</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.9319610346795564</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.7959523097398592</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.7781244536444226</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>pndit&amp;pn++allopen&gt;005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>sgp</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>dit&amp;pn++allopen&gt;01</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>sgp</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>hispnditckpt299</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>sgp</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
         <v>12</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E22" t="n">
         <v>24</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F22" t="n">
         <v>4</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G22" t="n">
         <v>8</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H22" t="n">
         <v>34</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I22" t="n">
         <v>19</v>
       </c>
-      <c r="J16" t="n">
-        <v>7</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
         <v>45</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L22" t="n">
         <v>18</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M22" t="n">
         <v>20</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N22" t="n">
         <v>48</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O22" t="n">
         <v>108</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P22" t="n">
         <v>594</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q22" t="n">
         <v>25</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R22" t="n">
         <v>6</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S22" t="n">
         <v>9</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T22" t="n">
         <v>2</v>
       </c>
-      <c r="U16" t="n">
+      <c r="U22" t="n">
         <v>11</v>
       </c>
-      <c r="V16" t="n">
+      <c r="V22" t="n">
         <v>28</v>
       </c>
-      <c r="W16" t="n">
+      <c r="W22" t="n">
         <v>27</v>
       </c>
-      <c r="X16" t="n">
+      <c r="X22" t="n">
         <v>13</v>
       </c>
     </row>

--- a/notebooks/simulation/sim_results/summary_norm_dist_000_train.xlsx
+++ b/notebooks/simulation/sim_results/summary_norm_dist_000_train.xlsx
@@ -2038,7 +2038,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>hispnditckpt299</t>
+          <t>hispnditFilter</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">

--- a/notebooks/simulation/sim_results/summary_norm_dist_000_train.xlsx
+++ b/notebooks/simulation/sim_results/summary_norm_dist_000_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1096,6 +1096,474 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>his</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>sgp</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>hispnditFilrepeat5</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>sgp+cc</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>pnditrepeat5</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sgp+cc</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>hispnditFilrepeat5</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>sgp+cc+hf</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>hispnditFilrepeat5</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>sgp+hf</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>his</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>sgp+hf</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
